--- a/biology/Botanique/Lentille_d'eau/Lentille_d'eau.xlsx
+++ b/biology/Botanique/Lentille_d'eau/Lentille_d'eau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lentille_d%27eau</t>
+          <t>Lentille_d'eau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lentille d'eau ou lentille-d'eau est un nom vernaculaire ambigu désignant en français certaines plantes aquatiques flottantes. On les appelle aussi lenticules. Ce sont des plantes angiospermes qui appartiennent à la famille des Lemnaceae (intégrée à celle des Araceae selon la classification phylogénétique) et notamment à 3 genres : Lemna, Spirodela et Wolffia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lentille_d%27eau</t>
+          <t>Lentille_d'eau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste d'espèces appelées « lentille d'eau »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lentille d'eau bossue - Lemna gibba
 Lentille d'eau sans racines - Wolffia arrhiza
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lentille_d%27eau</t>
+          <t>Lentille_d'eau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des lentilles d'eau sont présentes dans tous les continents. Lorsqu'elles prolifèrent à l'excès, elles peuvent être un signe d'eutrophisation.
 Chaque lentille d'eau fabrique une nouvelle feuille qui grossit, puis se détache et forme une nouvelle plante. Cette multiplication végétative ne fait donc intervenir ni graines ni spores.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lentille_d%27eau</t>
+          <t>Lentille_d'eau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,11 +594,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est arrivé qu'on les donne en complément alimentaire aux cochons, qui, en été, dans le nord de la France, en Belgique ou aux Pays-Bas descendaient parfois eux-mêmes dans les watringues manger les lentilles à la surface de l'eau, ainsi que les escargots et animaux qui peuvent y être fixés.
 Il est aussi une partie importante de la diète des canards et autres oiseaux d'eau, par conséquent son nom anglais duckweed « mauvaise herbe du canard ».
-Une variété de lentilles d'eau, Wolffia globosa, est cultivée en Israël et en Asie du Sud-Est, où elle est appelée « Mankai » et consommée sous la forme de diverses préparations, notamment des boulettes de « viande végétale » ; son profil protéique est proche de celui de l’œuf[1]. Elle est riche en protéines (plus de 45 % de la matière sèche) et contient les neuf acides aminés essentiels pour l'être humain[2]. Selon une étude publiée en décembre 2019, les lentilles Wolffia globosa « pourraient constituer une source de substitution de haute qualité pour des protéines animales, et une source potentielle de vitamine B12 biodisponible[3] ».
+Une variété de lentilles d'eau, Wolffia globosa, est cultivée en Israël et en Asie du Sud-Est, où elle est appelée « Mankai » et consommée sous la forme de diverses préparations, notamment des boulettes de « viande végétale » ; son profil protéique est proche de celui de l’œuf. Elle est riche en protéines (plus de 45 % de la matière sèche) et contient les neuf acides aminés essentiels pour l'être humain. Selon une étude publiée en décembre 2019, les lentilles Wolffia globosa « pourraient constituer une source de substitution de haute qualité pour des protéines animales, et une source potentielle de vitamine B12 biodisponible ».
 </t>
         </is>
       </c>
